--- a/路线配送任务/test-router - 综合情况.xlsx
+++ b/路线配送任务/test-router - 综合情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\路线配送任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CACD9C-71EF-4B04-A9CD-2099424EB3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E511872-83FB-49EE-AE6E-D4BF8DA7F54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="2">
         <v>12.1</v>
@@ -664,7 +664,10 @@
         <v>9</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -858,10 +861,7 @@
         <v>5.5</v>
       </c>
       <c r="N9" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60473C9-26A3-4E46-B6E8-527D8C84E27C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
